--- a/biology/Botanique/Sonia_Rykiel_(rose)/Sonia_Rykiel_(rose).xlsx
+++ b/biology/Botanique/Sonia_Rykiel_(rose)/Sonia_Rykiel_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Sonia Rykiel' est un cultivar de rosier pentaploïde obtenu en 1991 par le rosiériste français Dominique Massad et mis au commerce en 1995 par la maison Guillot. Il rend hommage à la styliste Sonia Rykiel (1930-2016). Il fait partie de la collection « Générosa »[1],[2].
+'Sonia Rykiel' est un cultivar de rosier pentaploïde obtenu en 1991 par le rosiériste français Dominique Massad et mis au commerce en 1995 par la maison Guillot. Il rend hommage à la styliste Sonia Rykiel (1930-2016). Il fait partie de la collection « Générosa »,.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son buisson présente un port plutôt souple au feuillage dense, s'élevant à 150 cm[3]. Il montre des fleurs d'un rose délicat en forme de coupe aux pétales chiffonnés, ce qui leur donne l'aspect de roses romantiques à l'ancienne. Elles sont délicieusement parfumées avec des nuances fruitées[1]. La floraison est remontante et abondante en été[4]. Elles tiennent très bien en vase.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son buisson présente un port plutôt souple au feuillage dense, s'élevant à 150 cm. Il montre des fleurs d'un rose délicat en forme de coupe aux pétales chiffonnés, ce qui leur donne l'aspect de roses romantiques à l'ancienne. Elles sont délicieusement parfumées avec des nuances fruitées. La floraison est remontante et abondante en été. Elles tiennent très bien en vase.
 'Sonia Rykiel' supporte des températures hivernales à -15° C. Le succès de cette rose ne se dément pas depuis sa création, tant en France qu'à l'étranger; elle est prisée pour son aspect de rose ancienne, la délicatesse de son coloris et son parfum.
-La variété 'Sonia Rykiel' est issue d'un croisement de semis ['Yellow Cushion' × 'Aloha' (Boerner, 1949)] x pollen 'Graham Thomas' (Austin, 1983)[4].
+La variété 'Sonia Rykiel' est issue d'un croisement de semis ['Yellow Cushion' × 'Aloha' (Boerner, 1949)] x pollen 'Graham Thomas' (Austin, 1983).
 </t>
         </is>
       </c>
